--- a/settings.xlsx
+++ b/settings.xlsx
@@ -297,13 +297,13 @@
     <t>i2c device 8</t>
   </si>
   <si>
-    <t>a_buttons count</t>
-  </si>
-  <si>
-    <t>d_buttons count</t>
-  </si>
-  <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>i2c sda pin</t>
+  </si>
+  <si>
+    <t>i2c scl pin</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:5">
